--- a/2_work_examples-input/lump_of_clay/a_SDTM_Structured_Data_Table_Migration/a_collect - Example - lump of clay - stage 2 - dataise time.xlsx
+++ b/2_work_examples-input/lump_of_clay/a_SDTM_Structured_Data_Table_Migration/a_collect - Example - lump of clay - stage 2 - dataise time.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMi\oslo\C-FORS-Summer-School-BORO\handouts\2_work_examples-input\a_SDTM_Structured_Data_Table_Migration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OXi\PythonDev\c-fors-summer-school-boro\handouts\2_work_examples-input\lump_of_clay\a_SDTM_Structured_Data_Table_Migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287FCC07-D55A-405B-B04E-644EAE2965B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC687A1-577C-47FB-95C1-C28EF426A2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28905" yWindow="9945" windowWidth="16560" windowHeight="5880" activeTab="2" xr2:uid="{C67F7CF6-35BE-4F51-8990-78F06D8A0219}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{C67F7CF6-35BE-4F51-8990-78F06D8A0219}"/>
   </bookViews>
   <sheets>
     <sheet name="a_lumps_of_clay" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
-  <si>
-    <t>lump of clay #1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>t1</t>
   </si>
@@ -498,8 +495,8 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,12 +506,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -530,7 +527,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,30 +542,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
       </c>
       <c r="D2" s="3">
         <v>45097</v>
@@ -579,13 +576,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3">
         <v>45479</v>
@@ -600,7 +597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7246295C-BE1B-43F2-BE84-3BD0DAAD218D}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -612,15 +609,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>45097</v>
@@ -628,7 +625,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>45223</v>
@@ -636,7 +633,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>45479</v>
